--- a/ImportData.xlsx
+++ b/ImportData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenuim\Project\SanityCheckP1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jihene.abidli\Desktop\Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E278CF26-61BC-4353-B5AA-5DE0E35B5292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA51054-86ED-4D79-A1CB-16C37FDDA67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>jihene</t>
   </si>
@@ -52,6 +52,51 @@
   </si>
   <si>
     <t>jihene1989.abidli@gmail.com</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>HouseNbr</t>
+  </si>
+  <si>
+    <t>Apartment</t>
+  </si>
+  <si>
+    <t>TownCity</t>
+  </si>
+  <si>
+    <t>StateCountry</t>
+  </si>
+  <si>
+    <t>PostCode</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>EmailAddr</t>
+  </si>
+  <si>
+    <t>2041</t>
   </si>
 </sst>
 </file>
@@ -381,56 +426,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
     <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="10" max="10" width="27.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" customWidth="1"/>
+    <col min="12" max="12" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J1" r:id="rId1" xr:uid="{EA2B2312-803F-41EE-9DF7-022D7871E51A}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{EA2B2312-803F-41EE-9DF7-022D7871E51A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
